--- a/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9034,7 +9035,6 @@
           <t>中金瑞祥灵活配置混合C</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>79.22</t>
@@ -9066,7 +9066,6 @@
           <t>东吴沪深300指数C</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>93.32</t>
@@ -9082,6 +9081,2758 @@
       </c>
       <c r="H83" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7555</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5173</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3923</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0588</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9936</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6463</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6273</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3859</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515780</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛MSCI中国A股ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515770</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根MSCI中国A股ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512180</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股国际通ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>167601</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国金沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>502020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国金上证50指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510120</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通上证非周期ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11838,4 +11839,2374 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8783</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.5064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7335</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4807</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3634</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2203</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1993</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0452</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0423</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9999</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>61.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14209,4 +14210,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14218,7 +14219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14229,17 +14230,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14249,14 +14270,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>61</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.84</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -14265,14 +14308,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.69</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -14281,14 +14346,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.98</v>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14297,13 +14384,2693 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3865</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2688</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1507</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0630</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9986</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9975</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8094</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5356</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>143</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>75.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16969,7 +16970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16980,17 +16981,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17000,14 +17021,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.44</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -17016,14 +17059,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.84</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -17032,14 +17097,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.69</v>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -17048,14 +17135,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>82</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46.98</v>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -17064,13 +17173,2143 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6881</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5918</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0830</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9822</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8317</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7803</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6872</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5840</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>143</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>75.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19192,7 +19193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19203,17 +19204,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19223,14 +19244,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.94</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3084</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19239,14 +19282,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.44</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -19255,14 +19320,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.84</v>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8837</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -19271,14 +19358,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.69</v>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -19287,14 +19396,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>82</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46.98</v>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -19303,13 +19434,3069 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7279</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4932</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1997</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9658</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9453</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8264</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7550</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7139</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5585</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>35.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015040</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>502020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国金上证50指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>143</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>75.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603288-海天味业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>41.23</v>
+        <v>30.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>32.94</v>
+        <v>41.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>41.44</v>
+        <v>32.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>56.84</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>41.69</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>46.98</v>
+        <v>41.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>143</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>75.31</v>
       </c>
     </row>
@@ -600,6 +617,3092 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7977</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6631</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8457</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6513</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4081</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515910</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006341</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015040</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006342</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际质量指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159862</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华中证食品ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159798</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信澳消费优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012341</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西藏东财中证食品饮料指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上银内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012340</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财中证食品饮料指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>502020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国金上证50指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015754</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上银内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015751</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3769,7 +6872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5991,7 +9094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8741,7 +11844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11111,7 +14214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13863,7 +16966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17021,7 +20124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
